--- a/Resume_avk/NewTopicWise.xlsx
+++ b/Resume_avk/NewTopicWise.xlsx
@@ -4,26 +4,98 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="658" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="712"/>
   </bookViews>
   <sheets>
-    <sheet name="AWS" sheetId="1" r:id="rId1"/>
-    <sheet name="Terraform" sheetId="3" r:id="rId2"/>
-    <sheet name="Linux" sheetId="16" r:id="rId3"/>
-    <sheet name="HashiCorpPacker" sheetId="4" r:id="rId4"/>
-    <sheet name="Tomcat" sheetId="5" r:id="rId5"/>
-    <sheet name="GIT" sheetId="6" r:id="rId6"/>
-    <sheet name="ArtifactBuild Tools" sheetId="7" r:id="rId7"/>
-    <sheet name="Jenkins" sheetId="8" r:id="rId8"/>
-    <sheet name="Docker" sheetId="9" r:id="rId9"/>
-    <sheet name="Kubernetes" sheetId="10" r:id="rId10"/>
-    <sheet name="Helm" sheetId="11" r:id="rId11"/>
-    <sheet name="M &amp; A" sheetId="12" r:id="rId12"/>
-    <sheet name="Python" sheetId="14" r:id="rId13"/>
-    <sheet name="Ansible" sheetId="15" r:id="rId14"/>
+    <sheet name="Versions" sheetId="17" r:id="rId1"/>
+    <sheet name="AWS" sheetId="1" r:id="rId2"/>
+    <sheet name="Terraform" sheetId="3" r:id="rId3"/>
+    <sheet name="Linux" sheetId="16" r:id="rId4"/>
+    <sheet name="HashiCorpPacker" sheetId="4" r:id="rId5"/>
+    <sheet name="Tomcat" sheetId="5" r:id="rId6"/>
+    <sheet name="GIT" sheetId="6" r:id="rId7"/>
+    <sheet name="ArtifactBuild Tools" sheetId="7" r:id="rId8"/>
+    <sheet name="Jenkins" sheetId="8" r:id="rId9"/>
+    <sheet name="Docker" sheetId="9" r:id="rId10"/>
+    <sheet name="Kubernetes" sheetId="10" r:id="rId11"/>
+    <sheet name="Helm" sheetId="11" r:id="rId12"/>
+    <sheet name="M &amp; A" sheetId="12" r:id="rId13"/>
+    <sheet name="Python" sheetId="14" r:id="rId14"/>
+    <sheet name="Ansible" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>TOPICS Learned</t>
+  </si>
+  <si>
+    <t>Python Introduction - Why Python is best compared to others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role of Python in DevOps Engineer life. </t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>3.10.4</t>
+  </si>
+  <si>
+    <t>Installing Python 3.10.4</t>
+  </si>
+  <si>
+    <t>Installaing Python Pycharm IDE</t>
+  </si>
+  <si>
+    <t>Python Interpreter</t>
+  </si>
+  <si>
+    <t>Strings &amp; Number Data Types</t>
+  </si>
+  <si>
+    <t>Arithmetic Operators</t>
+  </si>
+  <si>
+    <t>String Concatenation</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Function Parameters</t>
+  </si>
+  <si>
+    <t>Variable Scopes</t>
+  </si>
+  <si>
+    <t>Accepting User Input</t>
+  </si>
+  <si>
+    <t>casting</t>
+  </si>
+  <si>
+    <t>Error Handling try - Except</t>
+  </si>
+  <si>
+    <t>while loops</t>
+  </si>
+  <si>
+    <t>Lists for loops</t>
+  </si>
+  <si>
+    <t>Sets and Lists</t>
+  </si>
+  <si>
+    <t>Build in Functions</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57,8 +129,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,6 +441,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -375,75 +724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -457,11 +738,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -471,7 +752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -485,7 +766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -499,7 +780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -513,7 +794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -527,7 +808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -539,18 +820,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Resume_avk/NewTopicWise.xlsx
+++ b/Resume_avk/NewTopicWise.xlsx
@@ -7,28 +7,27 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="712"/>
   </bookViews>
   <sheets>
-    <sheet name="Versions" sheetId="17" r:id="rId1"/>
-    <sheet name="AWS" sheetId="1" r:id="rId2"/>
-    <sheet name="Terraform" sheetId="3" r:id="rId3"/>
-    <sheet name="Linux" sheetId="16" r:id="rId4"/>
-    <sheet name="HashiCorpPacker" sheetId="4" r:id="rId5"/>
-    <sheet name="Tomcat" sheetId="5" r:id="rId6"/>
-    <sheet name="GIT" sheetId="6" r:id="rId7"/>
-    <sheet name="ArtifactBuild Tools" sheetId="7" r:id="rId8"/>
-    <sheet name="Jenkins" sheetId="8" r:id="rId9"/>
-    <sheet name="Docker" sheetId="9" r:id="rId10"/>
-    <sheet name="Kubernetes" sheetId="10" r:id="rId11"/>
-    <sheet name="Helm" sheetId="11" r:id="rId12"/>
-    <sheet name="M &amp; A" sheetId="12" r:id="rId13"/>
-    <sheet name="Python" sheetId="14" r:id="rId14"/>
-    <sheet name="Ansible" sheetId="15" r:id="rId15"/>
+    <sheet name="AWS" sheetId="1" r:id="rId1"/>
+    <sheet name="Terraform" sheetId="3" r:id="rId2"/>
+    <sheet name="Linux" sheetId="16" r:id="rId3"/>
+    <sheet name="HashiCorpPacker" sheetId="4" r:id="rId4"/>
+    <sheet name="Tomcat" sheetId="5" r:id="rId5"/>
+    <sheet name="GIT" sheetId="6" r:id="rId6"/>
+    <sheet name="ArtifactBuild Tools" sheetId="7" r:id="rId7"/>
+    <sheet name="Jenkins" sheetId="8" r:id="rId8"/>
+    <sheet name="Docker" sheetId="9" r:id="rId9"/>
+    <sheet name="Kubernetes" sheetId="10" r:id="rId10"/>
+    <sheet name="Helm" sheetId="11" r:id="rId11"/>
+    <sheet name="M &amp; A" sheetId="12" r:id="rId12"/>
+    <sheet name="Python" sheetId="14" r:id="rId13"/>
+    <sheet name="Ansible" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TOPICS Learned</t>
   </si>
@@ -37,12 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">Role of Python in DevOps Engineer life. </t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>3.10.4</t>
   </si>
   <si>
     <t>Installing Python 3.10.4</t>
@@ -441,26 +434,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -469,9 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -483,7 +462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -496,7 +477,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,20 +487,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -559,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,7 +598,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +622,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +630,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +638,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +646,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +654,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -696,7 +663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -715,7 +682,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +696,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +710,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +724,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +738,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +752,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +766,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +780,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resume_avk/NewTopicWise.xlsx
+++ b/Resume_avk/NewTopicWise.xlsx
@@ -22,7 +22,7 @@
     <sheet name="Python" sheetId="14" r:id="rId13"/>
     <sheet name="Ansible" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
